--- a/Agile-Scrum.xlsx
+++ b/Agile-Scrum.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\xampp\htdocs\mars-attack\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\VCA\Documents\xamp\htdocs\PlanetX\mars-attack\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05311F58-4AE8-4E0E-A593-246D6AFAEF90}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFD18F0C-8F44-4336-B4BF-B3E94B6AC837}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="492" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Mars-Attack" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="25">
   <si>
     <t>Product Backlog</t>
   </si>
@@ -49,6 +49,57 @@
   </si>
   <si>
     <t>Assigned Who?</t>
+  </si>
+  <si>
+    <t>shopping page</t>
+  </si>
+  <si>
+    <t>product designs</t>
+  </si>
+  <si>
+    <t>game board design</t>
+  </si>
+  <si>
+    <t>game cards design</t>
+  </si>
+  <si>
+    <t>game logic design</t>
+  </si>
+  <si>
+    <t>game intro page design</t>
+  </si>
+  <si>
+    <t>dice design</t>
+  </si>
+  <si>
+    <t>log in page design</t>
+  </si>
+  <si>
+    <t>admin page</t>
+  </si>
+  <si>
+    <t>story update</t>
+  </si>
+  <si>
+    <t>blog update</t>
+  </si>
+  <si>
+    <t>sql setup</t>
+  </si>
+  <si>
+    <t>merve</t>
+  </si>
+  <si>
+    <t>neslihan</t>
+  </si>
+  <si>
+    <t>aydin</t>
+  </si>
+  <si>
+    <t>altas</t>
+  </si>
+  <si>
+    <t>graphics</t>
   </si>
 </sst>
 </file>
@@ -627,22 +678,22 @@
   <dimension ref="A1:H46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="3.5703125" style="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.28515625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="16.85546875" style="3" customWidth="1"/>
+    <col min="1" max="1" width="3.5546875" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.77734375" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.88671875" style="3" customWidth="1"/>
     <col min="4" max="4" width="1" style="18" customWidth="1"/>
-    <col min="5" max="5" width="12.5703125" style="3" customWidth="1"/>
-    <col min="6" max="6" width="16.28515625" style="3" customWidth="1"/>
-    <col min="7" max="7" width="12.5703125" style="3" customWidth="1"/>
-    <col min="8" max="8" width="12.5703125" style="4" customWidth="1"/>
+    <col min="5" max="5" width="12.5546875" style="3" customWidth="1"/>
+    <col min="6" max="6" width="16.33203125" style="3" customWidth="1"/>
+    <col min="7" max="7" width="12.5546875" style="3" customWidth="1"/>
+    <col min="8" max="8" width="12.5546875" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
@@ -662,7 +713,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="11" t="s">
         <v>1</v>
       </c>
@@ -678,76 +729,228 @@
       <c r="G2" s="8"/>
       <c r="H2" s="9"/>
     </row>
-    <row r="3" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5">
         <v>1</v>
       </c>
-      <c r="B3" s="2"/>
+      <c r="B3" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="C3" s="2"/>
     </row>
-    <row r="4" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="6">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="6">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6">
         <v>4</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="6">
         <v>5</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="6">
         <v>6</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="10" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="11" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="12" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="13" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="14" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="15" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="16" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="17" ht="26.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="18" ht="26.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="19" ht="26.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="20" ht="26.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="21" ht="26.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="22" ht="26.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="23" ht="26.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="24" ht="26.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="25" ht="26.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="26" ht="26.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="27" ht="26.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="28" ht="26.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="29" ht="26.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="30" ht="26.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="31" ht="26.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="32" ht="26.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="33" ht="26.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="34" ht="26.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="35" ht="26.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="36" ht="26.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="37" ht="26.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="38" ht="26.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="39" ht="26.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="40" ht="26.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="41" ht="26.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="42" ht="26.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="43" ht="26.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="44" ht="26.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="45" ht="26.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="46" ht="26.25" customHeight="1" x14ac:dyDescent="0.25"/>
+      <c r="B8" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="5">
+        <v>7</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="6">
+        <v>8</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="6">
+        <v>9</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="6">
+        <v>10</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="6">
+        <v>11</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="6">
+        <v>12</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="5">
+        <v>13</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="6">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="6">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="6">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="6">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="6">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="5">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="6">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="6">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="6">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="6">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="6">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="5">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="6">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="6">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="6">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="6">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="6">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="33" ht="26.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="34" ht="26.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="35" ht="26.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="36" ht="26.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="37" ht="26.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="38" ht="26.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="39" ht="26.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="40" ht="26.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="41" ht="26.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="42" ht="26.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="43" ht="26.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="44" ht="26.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="45" ht="26.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="46" ht="26.25" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:C1"/>

--- a/Agile-Scrum.xlsx
+++ b/Agile-Scrum.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\VCA\Documents\xamp\htdocs\PlanetX\mars-attack\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\PlanetX\mars-attack\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFD18F0C-8F44-4336-B4BF-B3E94B6AC837}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="492" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="492" windowWidth="23256" windowHeight="12576"/>
   </bookViews>
   <sheets>
     <sheet name="Mars-Attack" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -105,7 +105,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -674,14 +674,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
       <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="3.5546875" style="6" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.77734375" style="3" bestFit="1" customWidth="1"/>
